--- a/newTest12.xlsx
+++ b/newTest12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="442">
   <si>
     <t>Section1, Module1: Reading and Writing</t>
   </si>
@@ -613,7 +613,7 @@
   <si>
     <t>\i Great Expectations\i0  is an 1861 novel by Charles Dickens. In the story, Pip, a poor orphan who is cared for by his sister and her husband, meets the young girl who will become the lifetime object of his affections while simultaneously becoming aware of his lowly position in the British class system.\par\li300 
 For a long time I went once a week to this strange, gloomy house\emdash it was called Satis House\emdash and once Estella told me I might kiss her.\par 
-And then Miss Havisham decided I was to be apprenticed to Joe, and gave him £25 for the purpose; and I left off going to see her, and helped Joe in the forge. But I didn\rquote t like Joe\rquote s trade, and I was \ul afflicted\ul0  by that most miserable thing\emdash to feel ashamed of home.</t>
+And then Miss Havisham decided I was to be apprenticed to Joe, and gave him 25 pounds for the purpose; and I left off going to see her, and helped Joe in the forge. But I didn\rquote t like Joe\rquote s trade, and I was \ul afflicted\ul0  by that most miserable thing\emdash to feel ashamed of home.</t>
   </si>
   <si>
     <t>As used in the text, what does the word \ldblquote afflicted\rdblquote  most nearly mean?</t>
@@ -1054,7 +1054,7 @@
     <t>[[f(x) = 3^x + 1]]</t>
   </si>
   <si>
-    <t>Parallelogram \i ADEC\i0  has a side of [[\overline{DE}]] of length 10 units, and a side of [[\overline{DA}]] of length 5units. The length from A to B is 3 units. What is the area of the parallelogram in square units?</t>
+    <t>Parallelogram \i ADEC\i0  has a side of [[\overline{DE}]] of length 10 units, and a side of [[\overline{DA}]] of length 5 units. The length from A to B is 3 units. What is the area of the parallelogram in square units?</t>
   </si>
   <si>
     <t>[[A = \frac{v^2}{R}]]</t>
@@ -1143,7 +1143,7 @@
     <t>The mean height of seven teenage boys is 67 inches. If one of the boys has a height of 74 inches, what is the mean height of the remaining boys to the nearest tenth of an inch?</t>
   </si>
   <si>
-    <t>[[\angle]]\i X\i0  is measured in degrees. If the cosine of [[\angle]]\i X\i0  is [[\frac{\sqrt{2}}{2}]], what is the sine of (90 - [[\angle]] X)?</t>
+    <t>[[\angle{X}]] is measured in degrees. If the cosine of [[\angle{X}]] is [[\frac{\sqrt{2}}{2}]], what is the sine of (90 - [[\angle{X}]] )?</t>
   </si>
   <si>
     <t>[[\frac{1}{2}]]</t>
@@ -1209,13 +1209,13 @@
     <t>Section2, Module2: Math</t>
   </si>
   <si>
-    <t>In the line formed by the equation [[y + 5 = 7x]], what is the value of the [[y-]]intercept?</t>
+    <t>In the line formed by the equation [[y + 5 = 7x]], what is the value of the [[y-intercept]]?</t>
   </si>
   <si>
     <t>Twenty students were asked the combined total number of servings of fruits and vegetables they have each day. The results are presented in the histogram above. What is the median number of servings of fruits and vegetables consumed each day?</t>
   </si>
   <si>
-    <t>Which of the following is equivalent to [[\frac{x^ - 81}{x + 9}]] ?</t>
+    <t>Which of the following is equivalent to [[\frac{x^2 - 81}{x + 9}]] ?</t>
   </si>
   <si>
     <t>[[x + 9]]</t>
@@ -1284,7 +1284,7 @@
     <t>The additional cost to the restaurant for each additional meal.</t>
   </si>
   <si>
-    <t>Which of the following represents the graph of [[\frac{1}{2}y + 2 = -x]]?</t>
+    <t>Which of the following represents the graph of [[\frac{1}{2}y + 2 = -x]] ?</t>
   </si>
   <si>
     <t>In a survey of 1,000 likely voters, [[\frac{1}{2}]] like Candidate A, [[\frac{1}{3}]] like Candidate B, and the remainder like neither candidate. If a likely voter is selected at random, what is the probability that they will like neither candidate?</t>
@@ -1338,7 +1338,7 @@
     <t>Ken\rquote s commute takes 25 more minutes in the evening than it does in the morning. If his total daily commute takes 95 minutes, how long does his morning commute take in minutes?</t>
   </si>
   <si>
-    <t>The function [[f]] is determined by [[f(x) = \frac{x^3}{4} + 3]]. What is the value of [[f(2)]]?</t>
+    <t>The function [[f]] is determined by [[f(x) = \frac{x^3}{4} + 3]]. What is the value of [[f(2)?]]</t>
   </si>
   <si>
     <t>If the volume of a right rectangular prism is 90 cubic inches, and the product of the length and width of the prism is 30 square inches, what is the height of the prism?</t>
@@ -1369,10 +1369,10 @@
     <t>What percentage of 70 is 35?</t>
   </si>
   <si>
-    <t>A line that is perpendicular to the line with the equation [[y = - 3x + 5]] has a [[y-]]intercept of 4. What is the [[y]] value of a point in this perpendicular line when its [[x]] value is 3?</t>
-  </si>
-  <si>
-    <t>In triangle \i ABC\i0  above, [[\overline{AC}]] is 24 units long and [[\overline{BC}]] is 7 units long. What is the cosine of [[\angle]] \i ABC\i0 ?</t>
+    <t>A line that is perpendicular to the line with the equation [[y = - 3x + 5]] has a [[y-intercept]] of 4. What is the [[y]] value of a point in this perpendicular line when its [[x]] value is 3?</t>
+  </si>
+  <si>
+    <t>In triangle \i ABC\i0  above, [[\overline{AC}]] is 24 units long and [[\overline{BC}]] is 7 units long. What is the cosine of [[\angle{A}]]?</t>
   </si>
   <si>
     <t>[[\frac{7}{25}]]</t>
@@ -1491,11 +1491,11 @@
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -3249,7 +3249,9 @@
       <c r="G36" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="H36" s="11"/>
+      <c r="H36" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3289,7 +3291,9 @@
       <c r="G37" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H37" s="11"/>
+      <c r="H37" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -3329,7 +3333,9 @@
       <c r="G38" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H38" s="11"/>
+      <c r="H38" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3369,7 +3375,9 @@
       <c r="G39" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H39" s="11"/>
+      <c r="H39" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3409,7 +3417,9 @@
       <c r="G40" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H40" s="11"/>
+      <c r="H40" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -3449,7 +3459,9 @@
       <c r="G41" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H41" s="11"/>
+      <c r="H41" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3491,7 +3503,9 @@
       <c r="G42" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H42" s="11"/>
+      <c r="H42" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3531,7 +3545,9 @@
       <c r="G43" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H43" s="11"/>
+      <c r="H43" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3571,7 +3587,9 @@
       <c r="G44" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="H44" s="11"/>
+      <c r="H44" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3613,7 +3631,9 @@
       <c r="G45" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H45" s="11"/>
+      <c r="H45" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3653,7 +3673,9 @@
       <c r="G46" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="H46" s="11"/>
+      <c r="H46" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3693,7 +3715,9 @@
       <c r="G47" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H47" s="11"/>
+      <c r="H47" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3733,7 +3757,9 @@
       <c r="G48" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="H48" s="11"/>
+      <c r="H48" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3773,7 +3799,9 @@
       <c r="G49" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H49" s="11"/>
+      <c r="H49" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3813,7 +3841,9 @@
       <c r="G50" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="H50" s="11"/>
+      <c r="H50" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3853,7 +3883,9 @@
       <c r="G51" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="H51" s="11"/>
+      <c r="H51" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -3893,7 +3925,9 @@
       <c r="G52" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="H52" s="11"/>
+      <c r="H52" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -3933,7 +3967,9 @@
       <c r="G53" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="H53" s="11"/>
+      <c r="H53" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -3975,7 +4011,9 @@
       <c r="G54" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H54" s="11"/>
+      <c r="H54" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -4017,7 +4055,9 @@
       <c r="G55" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="H55" s="11"/>
+      <c r="H55" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -4059,7 +4099,9 @@
       <c r="G56" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="H56" s="11"/>
+      <c r="H56" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -4101,7 +4143,9 @@
       <c r="G57" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="H57" s="11"/>
+      <c r="H57" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -4143,7 +4187,9 @@
       <c r="G58" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H58" s="11"/>
+      <c r="H58" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -4185,7 +4231,9 @@
       <c r="G59" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="H59" s="11"/>
+      <c r="H59" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -4227,7 +4275,9 @@
       <c r="G60" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H60" s="11"/>
+      <c r="H60" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -4269,7 +4319,9 @@
       <c r="G61" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="H61" s="11"/>
+      <c r="H61" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -4311,7 +4363,9 @@
       <c r="G62" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="H62" s="11"/>
+      <c r="H62" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -4579,7 +4633,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="12"/>
+      <c r="H69" s="11"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -4601,7 +4655,7 @@
       <c r="A70" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B70" s="11"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="2" t="s">
         <v>304</v>
       </c>
@@ -4645,10 +4699,10 @@
       <c r="C71" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
       <c r="H71" s="2">
         <v>210.0</v>
       </c>
@@ -4755,7 +4809,7 @@
       <c r="A74" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B74" s="11"/>
+      <c r="B74" s="12"/>
       <c r="C74" s="2" t="s">
         <v>317</v>
       </c>
@@ -4875,7 +4929,7 @@
       <c r="A77" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B77" s="11"/>
+      <c r="B77" s="12"/>
       <c r="C77" s="2" t="s">
         <v>332</v>
       </c>
@@ -5139,10 +5193,10 @@
       <c r="C84" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
       <c r="H84" s="16">
         <v>10.0</v>
       </c>
@@ -5167,7 +5221,7 @@
       <c r="A85" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B85" s="11"/>
+      <c r="B85" s="12"/>
       <c r="C85" s="2" t="s">
         <v>350</v>
       </c>
@@ -5673,7 +5727,7 @@
       <c r="A98" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B98" s="11"/>
+      <c r="B98" s="12"/>
       <c r="C98" s="2" t="s">
         <v>383</v>
       </c>
@@ -5715,7 +5769,7 @@
       <c r="A99" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B99" s="11"/>
+      <c r="B99" s="12"/>
       <c r="C99" s="2" t="s">
         <v>384</v>
       </c>
@@ -5757,7 +5811,7 @@
       <c r="A100" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B100" s="11"/>
+      <c r="B100" s="12"/>
       <c r="C100" s="2" t="s">
         <v>385</v>
       </c>
@@ -5799,7 +5853,7 @@
       <c r="A101" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B101" s="11"/>
+      <c r="B101" s="12"/>
       <c r="C101" s="2" t="s">
         <v>390</v>
       </c>
@@ -5841,7 +5895,7 @@
       <c r="A102" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B102" s="11"/>
+      <c r="B102" s="12"/>
       <c r="C102" s="2" t="s">
         <v>393</v>
       </c>
@@ -5881,7 +5935,7 @@
       <c r="A103" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B103" s="11"/>
+      <c r="B103" s="12"/>
       <c r="C103" s="2" t="s">
         <v>398</v>
       </c>
@@ -5921,7 +5975,7 @@
       <c r="A104" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B104" s="11"/>
+      <c r="B104" s="12"/>
       <c r="C104" s="2" t="s">
         <v>403</v>
       </c>
@@ -5961,14 +6015,14 @@
       <c r="A105" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B105" s="11"/>
+      <c r="B105" s="12"/>
       <c r="C105" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
       <c r="H105" s="2" t="s">
         <v>3</v>
       </c>
@@ -5993,7 +6047,7 @@
       <c r="A106" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B106" s="11"/>
+      <c r="B106" s="12"/>
       <c r="C106" s="2" t="s">
         <v>409</v>
       </c>
@@ -6033,14 +6087,14 @@
       <c r="A107" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B107" s="11"/>
+      <c r="B107" s="12"/>
       <c r="C107" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
       <c r="H107" s="2">
         <v>50.0</v>
       </c>
@@ -6105,7 +6159,7 @@
       <c r="A109" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B109" s="11"/>
+      <c r="B109" s="12"/>
       <c r="C109" s="2" t="s">
         <v>419</v>
       </c>
@@ -6145,7 +6199,7 @@
       <c r="A110" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B110" s="11"/>
+      <c r="B110" s="12"/>
       <c r="C110" s="2" t="s">
         <v>420</v>
       </c>
@@ -6185,14 +6239,14 @@
       <c r="A111" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B111" s="11"/>
+      <c r="B111" s="12"/>
       <c r="C111" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
       <c r="H111" s="2">
         <v>35.0</v>
       </c>
@@ -6217,7 +6271,7 @@
       <c r="A112" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B112" s="11"/>
+      <c r="B112" s="12"/>
       <c r="C112" s="2" t="s">
         <v>426</v>
       </c>
@@ -6257,7 +6311,7 @@
       <c r="A113" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B113" s="11"/>
+      <c r="B113" s="12"/>
       <c r="C113" s="2" t="s">
         <v>427</v>
       </c>
@@ -6295,10 +6349,10 @@
       <c r="C114" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
       <c r="H114" s="2">
         <v>1.0</v>
       </c>
@@ -6323,7 +6377,7 @@
       <c r="A115" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B115" s="11"/>
+      <c r="B115" s="12"/>
       <c r="C115" s="2" t="s">
         <v>430</v>
       </c>
@@ -6405,7 +6459,7 @@
       <c r="A117" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B117" s="11"/>
+      <c r="B117" s="12"/>
       <c r="C117" s="2" t="s">
         <v>435</v>
       </c>
@@ -6445,14 +6499,14 @@
       <c r="A118" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B118" s="11"/>
+      <c r="B118" s="12"/>
       <c r="C118" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
       <c r="H118" s="2">
         <v>5.0</v>
       </c>
@@ -6477,7 +6531,7 @@
       <c r="A119" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B119" s="11"/>
+      <c r="B119" s="12"/>
       <c r="C119" s="2" t="s">
         <v>437</v>
       </c>
@@ -6535,7 +6589,7 @@
       <c r="G120" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H120" s="12"/>
+      <c r="H120" s="11"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
@@ -6575,7 +6629,7 @@
       <c r="G121" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H121" s="12"/>
+      <c r="H121" s="11"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -6615,7 +6669,7 @@
       <c r="G122" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H122" s="12"/>
+      <c r="H122" s="11"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
